--- a/reports/resnet18_23_no_MMTM/prediction/3/probability_test_3.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/3/probability_test_3.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9657073020935059</v>
+        <v>0.8266352415084839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03429263085126877</v>
+        <v>0.1733647435903549</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6705713272094727</v>
+        <v>0.6158555746078491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3294286727905273</v>
+        <v>0.3841444253921509</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9370934963226318</v>
+        <v>0.901824951171875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06290651112794876</v>
+        <v>0.09817502647638321</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1870864629745483</v>
+        <v>0.1337546408176422</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8129135966300964</v>
+        <v>0.8662453889846802</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2782830595970154</v>
+        <v>0.07277391850948334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7217169404029846</v>
+        <v>0.9272260665893555</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4311586320400238</v>
+        <v>0.498433381319046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5688413381576538</v>
+        <v>0.5015666484832764</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2536134421825409</v>
+        <v>0.3097399175167084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7463865280151367</v>
+        <v>0.690260112285614</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2454261481761932</v>
+        <v>0.564165472984314</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7545738220214844</v>
+        <v>0.4358345866203308</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2120845466852188</v>
+        <v>0.1433619260787964</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7879154682159424</v>
+        <v>0.8566380739212036</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2557790875434875</v>
+        <v>0.1855313628911972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7442209720611572</v>
+        <v>0.8144686222076416</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09227868914604187</v>
+        <v>0.1197356954216957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9077212810516357</v>
+        <v>0.8802642822265625</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.451085090637207</v>
+        <v>0.317055732011795</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5489148497581482</v>
+        <v>0.6829442977905273</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06444450467824936</v>
+        <v>0.05855672806501389</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9355554580688477</v>
+        <v>0.9414432644844055</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0856090784072876</v>
+        <v>0.3184382319450378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9143909215927124</v>
+        <v>0.6815617680549622</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06122521311044693</v>
+        <v>0.1225893497467041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9387747049331665</v>
+        <v>0.8774106502532959</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2929088175296783</v>
+        <v>0.3358227908611298</v>
       </c>
       <c r="C17" t="n">
-        <v>0.707091212272644</v>
+        <v>0.6641772389411926</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4882208406925201</v>
+        <v>0.698575496673584</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5117791295051575</v>
+        <v>0.301424503326416</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03920881450176239</v>
+        <v>0.08112539350986481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9607912302017212</v>
+        <v>0.9188745617866516</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2866369783878326</v>
+        <v>0.1015619114041328</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7133630514144897</v>
+        <v>0.8984380960464478</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2006618678569794</v>
+        <v>0.7918133735656738</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7993381023406982</v>
+        <v>0.2081866413354874</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
